--- a/X-C.xlsx
+++ b/X-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59C159-8942-436D-84C2-783E6C99AD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91326D1C-50C5-458A-8469-E6D8F1B474E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="100帮" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="下单统计" sheetId="3" r:id="rId3"/>
     <sheet name="100帮 已下单" sheetId="1" r:id="rId4"/>
     <sheet name="FDU 已下单" sheetId="2" r:id="rId5"/>
+    <sheet name="etc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{1E6E50F2-F1D4-4903-BA54-9BFDEDDD5668}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{0AA55580-6B20-42D7-980C-BBA8981D9776}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-满减优惠</t>
+id：dchimm </t>
         </r>
       </text>
     </comment>
@@ -76,7 +77,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{5BB87A58-FC23-4D67-984B-5F2B42904BD1}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{5BB87A58-FC23-4D67-984B-5F2B42904BD1}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{4D1A2276-5F08-4009-AC6B-263EC2EFC4A2}">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{4D1A2276-5F08-4009-AC6B-263EC2EFC4A2}">
       <text>
         <r>
           <rPr>
@@ -124,11 +125,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-朋友圈点赞 优惠 5.2</t>
+1.朋友圈点赞 优惠 5.2
+2.手续费1.45</t>
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{4D45D565-A6FB-44B4-B50D-43A25D0885D8}">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{4D45D565-A6FB-44B4-B50D-43A25D0885D8}">
       <text>
         <r>
           <rPr>
@@ -154,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{E85D3969-B768-4EE9-8E91-5D4B4354ECEC}">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{E85D3969-B768-4EE9-8E91-5D4B4354ECEC}">
       <text>
         <r>
           <rPr>
@@ -216,12 +218,91 @@
         </r>
       </text>
     </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{1E6E50F2-F1D4-4903-BA54-9BFDEDDD5668}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+满减优惠</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{79694C48-738A-4C95-957F-9D685B7ABCDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5.2优惠券</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{122D0FDE-1837-467C-A6D0-9009864D9F07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.优惠 500-10
+2.花呗手续费</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收货人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,247 +556,274 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢昕遥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>谢敏燕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省肇庆市端州区星湖大道恒裕海湾首层1-4卡邮政储蓄银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短袖1+1 橘色+白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪美琳</t>
+    <t>实付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总付款：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色 S</t>
+  </si>
+  <si>
+    <t>youth bath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcmm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+/-：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+/-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royallife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省杭州市余杭区临平街道月荷路28号莱茵知己4-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2WAY RIBBON CARDIGAN black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省福州市晋安区新店镇秀山路198号康城小区一期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里乌斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市西青区杨柳青镇莱茵小镇美林苑24-2-402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clotty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色小红帽短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main booth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜猜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省湘西州龙山县龙城世家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省珠海市香洲区前山福石路81号10栋2401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省福州市鼓楼区树汤路树兜花园3座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小刘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈泽琳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区容桂东逸湾七期水漾林庭B区3街35号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米奇扎染短袖 紫色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米奇扎染短袖 白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.22下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市南岸区美堤雅城2期2栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>babletwo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色豹纹短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100帮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色落肩上衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎染短袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kristine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市静安区海防路538弄6号2201室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色条纹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jennie x GM联名款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨镜kuku01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.24下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市徐汇区柳州路128弄康馨家园2号9A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.28下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.27下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投稿返现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.31下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muah muah</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黑色短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三件套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡哈特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Champion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>groove rhyme</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总付款：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色 S</t>
-  </si>
-  <si>
-    <t>youth bath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcmm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+/-：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">短袖1+1 白色+绿色 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省长沙市岳麓区麓谷街道东方红路369号梅溪鑫苑名家9栋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总付款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+/-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Royallife</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑欣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江省杭州市余杭区临平街道月荷路28号莱茵知己4-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2WAY RIBBON CARDIGAN black</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建省福州市晋安区新店镇秀山路198号康城小区一期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤里乌斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市西青区杨柳青镇莱茵小镇美林苑24-2-402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clotty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色小红帽短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>main booth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜猜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省湘西州龙山县龙城世家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省珠海市香洲区前山福石路81号10栋2401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建省福州市鼓楼区树汤路树兜花园3座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.20下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.21下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小刘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈泽琳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区容桂东逸湾七期水漾林庭B区3街35号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米奇扎染短袖 紫色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米奇扎染短袖 白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.22下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张瑶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆市南岸区美堤雅城2期2栋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>babletwo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色豹纹短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -730,7 +834,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +962,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -889,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1144,17 +1258,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
@@ -1261,13 +1364,37 @@
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="thin">
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1281,17 +1408,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,16 +1545,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,41 +1569,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,109 +1644,115 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1598,39 +1764,151 @@
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </horizontal>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
-        <bottom style="thin">
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
-        </horizontal>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1662,6 +1940,71 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1713,17 +2056,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E444BC7-8F2D-4752-A971-24F798CFEC1C}" name="表1" displayName="表1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="汇总" dataCellStyle="汇总">
-  <autoFilter ref="A1:F5" xr:uid="{F2ABA23D-97C5-4A39-B304-D7EF47FB4C31}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="5" dataCellStyle="超链接"/>
-    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="数量" dataDxfId="4" dataCellStyle="超链接"/>
-    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="3" dataCellStyle="汇总"/>
-    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="2" dataCellStyle="汇总"/>
-    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="1" dataCellStyle="汇总">
-      <calculatedColumnFormula>D2-表1[[#This Row],[总付款]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E444BC7-8F2D-4752-A971-24F798CFEC1C}" name="表1" displayName="表1" ref="A1:H11" totalsRowCount="1" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="A1:H10" xr:uid="{F2ABA23D-97C5-4A39-B304-D7EF47FB4C31}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
+    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="时间" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
+    <tableColumn id="8" xr3:uid="{A02C0EDF-44DE-4BDF-831D-A8954943C323}" name="数量" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{3ABFCA13-7E8E-4E17-ADB9-11138FE11265}" name="国际运费" dataDxfId="10" totalsRowDxfId="2" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="汇总" totalsRowCellStyle="汇总">
+      <calculatedColumnFormula>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="时间" dataDxfId="0" dataCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="APP" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2026,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2041,171 +2386,45 @@
     <col min="12" max="12" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23">
-        <v>239</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="24">
-        <v>13814694770</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
-        <v>169</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="20">
-        <v>13827599916</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23">
-        <v>279</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="24">
-        <v>13814694770</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
-        <v>209</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="20">
-        <v>17375729345</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2213,11 +2432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2225,355 +2444,400 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>179</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="66">
-        <v>18222242851</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>185</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <v>309</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="70">
-        <v>10</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="68">
-        <v>18933367700</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <v>309</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>39000</v>
-      </c>
-      <c r="F9" s="19">
-        <v>228</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="20">
-        <v>18875099023</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7FBE1-8ECA-46E5-9F0F-953899B69DB4}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7FBE1-8ECA-46E5-9F0F-953899B69DB4}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="60">
+        <v>5.2</v>
+      </c>
+      <c r="C2" s="3">
         <v>17</v>
       </c>
-      <c r="C2" s="51">
+      <c r="D2" s="51">
         <v>1251.7</v>
       </c>
-      <c r="D2" s="51">
-        <v>1783.49</v>
-      </c>
       <c r="E2" s="51">
-        <f>D2-表1[[#This Row],[总付款]]</f>
-        <v>531.79</v>
-      </c>
-      <c r="F2" s="52">
-        <v>5.2</v>
-      </c>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1776.84</v>
+      </c>
+      <c r="F2" s="51">
+        <v>246.4</v>
+      </c>
+      <c r="G2" s="51">
+        <f>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>278.7399999999999</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="60">
+        <v>5.21</v>
+      </c>
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="53">
-        <v>1034.7</v>
-      </c>
       <c r="D3" s="53">
+        <v>1034.51</v>
+      </c>
+      <c r="E3" s="53">
         <v>1184.43</v>
       </c>
-      <c r="E3" s="53">
-        <f>D3-表1[[#This Row],[总付款]]</f>
-        <v>149.73000000000002</v>
-      </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <f>E3-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>149.92000000000007</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60">
         <v>5.21</v>
       </c>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D4" s="53">
+        <v>817.44</v>
+      </c>
+      <c r="E4" s="53">
+        <v>1047</v>
+      </c>
+      <c r="F4" s="53">
+        <v>60.4</v>
+      </c>
+      <c r="G4" s="53">
+        <f>E4-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>169.15999999999994</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60">
+        <v>5.22</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="53">
-        <v>817.44</v>
-      </c>
-      <c r="D4" s="53">
-        <v>1047</v>
-      </c>
-      <c r="E4" s="53">
-        <f>D4-表1[[#This Row],[总付款]]</f>
-        <v>229.55999999999995</v>
-      </c>
-      <c r="F4" s="60">
-        <v>5.21</v>
-      </c>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="53">
+      <c r="D5" s="53">
         <v>604.79999999999995</v>
       </c>
-      <c r="D5" s="53">
+      <c r="E5" s="53">
         <v>807</v>
       </c>
-      <c r="E5" s="53">
-        <f>D5-表1[[#This Row],[总付款]]</f>
-        <v>202.20000000000005</v>
-      </c>
-      <c r="F5" s="52">
+      <c r="F5" s="53">
+        <v>61.5</v>
+      </c>
+      <c r="G5" s="53">
+        <f>E5-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>140.70000000000005</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="62">
         <v>5.22</v>
       </c>
-      <c r="H5" s="61"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="27"/>
+      <c r="C6" s="63">
+        <v>6</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1452.68</v>
+      </c>
+      <c r="E6" s="53">
+        <v>1653.8</v>
+      </c>
+      <c r="F6" s="53">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53">
+        <f>E6-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>201.11999999999989</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" s="64">
+        <v>5.24</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="53">
+        <v>1498</v>
+      </c>
+      <c r="E7" s="53">
+        <v>1598</v>
+      </c>
+      <c r="F7" s="53">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53">
+        <f>E7-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="67">
+        <v>5.27</v>
+      </c>
+      <c r="C8" s="63">
+        <v>1</v>
+      </c>
+      <c r="D8" s="53">
+        <v>1498</v>
+      </c>
+      <c r="E8" s="53">
+        <v>1598</v>
+      </c>
+      <c r="F8" s="53">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53">
+        <f>E8-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67">
+        <v>5.28</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2</v>
+      </c>
+      <c r="D9" s="53">
+        <v>509.25</v>
+      </c>
+      <c r="E9" s="53">
+        <v>576.52</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <f>E9-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>67.269999999999982</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>9</v>
+      </c>
+      <c r="B10" s="71">
+        <v>5.31</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+      <c r="D10" s="53">
+        <v>70</v>
+      </c>
+      <c r="E10" s="53">
+        <v>90</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53">
+        <f>E10-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G2:G18)</f>
+        <v>1226.9099999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" location="'100帮 已下单'!B23" display="'100帮 已下单'!B23" xr:uid="{DCD93F4C-135B-4EB8-B9A9-6D05F1D7F13C}"/>
     <hyperlink ref="A3" location="'FDU 已下单'!B12" display="'FDU 已下单'!B12" xr:uid="{A1292E66-71B8-4903-B9F7-5452159D8D4F}"/>
-    <hyperlink ref="A4" location="'100帮 已下单'!B30" display="'100帮 已下单'!B30" xr:uid="{4DE8070E-1B02-49CD-92FE-B1F92B9E55AF}"/>
-    <hyperlink ref="A5" location="'100帮 已下单'!B38" display="'100帮 已下单'!B38" xr:uid="{CA2948F3-71F8-4C5E-8589-07B3080ADE6C}"/>
+    <hyperlink ref="A4" location="'100帮 已下单'!B32" display="'100帮 已下单'!B32" xr:uid="{4DE8070E-1B02-49CD-92FE-B1F92B9E55AF}"/>
+    <hyperlink ref="A5" location="'100帮 已下单'!B41" display="'100帮 已下单'!B41" xr:uid="{CA2948F3-71F8-4C5E-8589-07B3080ADE6C}"/>
+    <hyperlink ref="A6" location="'FDU 已下单'!B26" display="'FDU 已下单'!B26" xr:uid="{C5CF0EB6-11B0-4B8F-B6BB-BC391FA96A92}"/>
+    <hyperlink ref="A7" location="etc!B6" display="etc!B6" xr:uid="{057F9AB6-A174-49A8-866E-849B45749AF2}"/>
+    <hyperlink ref="A8" location="etc!B13" display="etc!B13" xr:uid="{C1C225CB-1B0F-4715-A848-F316CC0BCC3D}"/>
+    <hyperlink ref="A9" location="'FDU 已下单'!B34" display="'FDU 已下单'!B34" xr:uid="{DFD8EAAE-03D0-4D68-BC41-13B195ADAF9B}"/>
+    <hyperlink ref="A10" location="'100帮 已下单'!B48" display="'100帮 已下单'!B48" xr:uid="{0A9C2834-BD94-4F5B-A801-CA425A8DD800}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAC304-3998-4D5B-9867-658A3579CE90}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2581,111 +2845,114 @@
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>5.19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="57">
-        <v>1</v>
-      </c>
-      <c r="E3" s="57">
+      <c r="D3" s="56">
+        <v>1</v>
+      </c>
+      <c r="E3" s="56">
         <v>8100</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>79</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="57">
         <f>F3*D3</f>
         <v>79</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="57">
         <v>53</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="57"/>
+      <c r="J3" s="83">
         <v>10</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="K3" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="77">
+        <v>13814694770</v>
+      </c>
+      <c r="M3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="74">
-        <v>13814694770</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
       <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -2703,18 +2970,19 @@
       <c r="H4" s="32">
         <v>53</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="78"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -2732,18 +3000,19 @@
       <c r="H5" s="32">
         <v>55</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="78"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -2761,18 +3030,19 @@
       <c r="H6" s="32">
         <v>55</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="78"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -2790,18 +3060,19 @@
       <c r="H7" s="33">
         <v>48</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="79"/>
       <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="M7" s="82"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
@@ -2812,30 +3083,33 @@
       <c r="F8" s="13">
         <v>75</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="99">
         <v>241.39</v>
       </c>
       <c r="H8" s="34">
         <v>48</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="91" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="91">
+        <v>6.65</v>
+      </c>
+      <c r="K8" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="94">
+        <v>17375302553</v>
+      </c>
+      <c r="M8" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="91">
-        <v>17375302553</v>
-      </c>
-      <c r="L8" s="85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -2846,22 +3120,23 @@
       <c r="F9" s="15">
         <v>85</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="100"/>
       <c r="H9" s="35">
         <v>55</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="86"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="89"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87"/>
       <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2872,22 +3147,23 @@
       <c r="F10" s="17">
         <v>79</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="36">
         <v>53</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="87"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="87"/>
       <c r="B11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="19">
         <v>2</v>
@@ -2905,26 +3181,27 @@
       <c r="H11" s="37">
         <v>106</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="37"/>
+      <c r="J11" s="29">
         <v>0.95</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="20">
         <v>18840654030</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="M11" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -2942,26 +3219,27 @@
       <c r="H12" s="34">
         <v>53</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="65"/>
+      <c r="J12" s="96">
         <v>0.95</v>
       </c>
-      <c r="J12" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="91">
+      <c r="K12" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="94">
         <v>13952822468</v>
       </c>
-      <c r="L12" s="85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
+      <c r="M12" s="88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
       <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -2979,18 +3257,19 @@
       <c r="H13" s="36">
         <v>53</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="87"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87"/>
       <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -3008,24 +3287,25 @@
       <c r="H14" s="37">
         <v>53</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="I14" s="37"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="20">
         <v>19810952575</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
+      <c r="M14" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87"/>
       <c r="B15" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -3043,26 +3323,27 @@
       <c r="H15" s="38">
         <v>53</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
+      <c r="I15" s="38"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="24">
+        <v>18664536540</v>
+      </c>
+      <c r="M15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="24">
-        <v>18664536540</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
@@ -3080,31 +3361,32 @@
       <c r="H16" s="37">
         <v>201.6</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="I16" s="37"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="20">
         <v>18875099023</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.95" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>5.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
@@ -3122,26 +3404,27 @@
       <c r="H18" s="38">
         <v>139.19999999999999</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="24">
+        <v>13852092313</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="24">
-        <v>13852092313</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>58</v>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -3159,24 +3442,25 @@
       <c r="H19" s="37">
         <v>131.4</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="37"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="20">
+        <v>13697286210</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="20">
-        <v>13697286210</v>
-      </c>
-      <c r="L19" s="21" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
+      <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="22" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -3194,18 +3478,19 @@
       <c r="H20" s="38">
         <v>94.5</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="24">
+        <v>15546622309</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="24">
-        <v>15546622309</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D21" s="40">
         <f>SUM(D4:D20)</f>
         <v>17</v>
@@ -3221,376 +3506,497 @@
         <v>1251.7</v>
       </c>
       <c r="I21" s="40">
-        <f>SUM(I3:I16)</f>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59" t="s">
-        <v>112</v>
+        <v>246.4</v>
+      </c>
+      <c r="J21" s="40">
+        <f>SUM(J3:J16)</f>
+        <v>18.549999999999997</v>
+      </c>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D23" s="43">
         <f>H21</f>
         <v>1251.7</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="43">
-        <f>G21-I21</f>
-        <v>1783.4899999999998</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="43">
-        <f>G23-D23</f>
-        <v>531.78999999999974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+        <f>G21-J21</f>
+        <v>1776.84</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="43">
+        <f>G23-D23-I21</f>
+        <v>278.7399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19">
+        <v>159</v>
+      </c>
+      <c r="G27" s="19">
+        <v>159</v>
+      </c>
+      <c r="H27" s="37">
+        <v>123.84</v>
+      </c>
+      <c r="I27" s="37">
+        <v>17.3</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="20">
+        <v>18559903536</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="23">
+        <v>94500</v>
+      </c>
+      <c r="F28" s="23">
+        <v>619</v>
+      </c>
+      <c r="G28" s="23">
+        <v>619</v>
+      </c>
+      <c r="H28" s="38">
+        <v>492</v>
+      </c>
+      <c r="I28" s="38">
+        <v>19.8</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="24">
+        <v>18933367700</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="76"/>
+      <c r="B29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>38700</v>
+      </c>
+      <c r="F29" s="19">
+        <v>269</v>
+      </c>
+      <c r="G29" s="19">
+        <v>269</v>
+      </c>
+      <c r="H29" s="37">
+        <v>201.6</v>
+      </c>
+      <c r="I29" s="37">
+        <v>23.3</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="20">
+        <v>13713671114</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="40">
+        <f>SUM(D27:D29)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40">
+        <f>SUM(G27:G29)</f>
+        <v>1047</v>
+      </c>
+      <c r="H30" s="40">
+        <f>SUM(H27:H29)</f>
+        <v>817.44</v>
+      </c>
+      <c r="I30" s="40">
+        <f>SUM(I27:I29)</f>
+        <v>60.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19">
-        <v>159</v>
-      </c>
-      <c r="G25" s="19">
-        <v>159</v>
-      </c>
-      <c r="H25" s="37">
-        <v>123.84</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="20">
+      <c r="C32" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="43">
+        <f>H30</f>
+        <v>817.44</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="43">
+        <f>G30-J30</f>
+        <v>1047</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="43">
+        <f>G32-D32-I30</f>
+        <v>169.15999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+    </row>
+    <row r="34" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+    </row>
+    <row r="35" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+    </row>
+    <row r="36" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1</v>
+      </c>
+      <c r="E36" s="23">
+        <v>38700</v>
+      </c>
+      <c r="F36" s="23">
+        <v>269</v>
+      </c>
+      <c r="G36" s="23">
+        <v>269</v>
+      </c>
+      <c r="H36" s="38">
+        <v>201.6</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="24">
+        <v>15600527500</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75"/>
+      <c r="B37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>38700</v>
+      </c>
+      <c r="F37" s="19">
+        <v>269</v>
+      </c>
+      <c r="G37" s="19">
+        <v>269</v>
+      </c>
+      <c r="H37" s="37">
+        <v>201.6</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="20">
+        <v>13411380392</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
+      <c r="B38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="23">
+        <v>1</v>
+      </c>
+      <c r="E38" s="23">
+        <v>38700</v>
+      </c>
+      <c r="F38" s="23">
+        <v>269</v>
+      </c>
+      <c r="G38" s="23">
+        <v>269</v>
+      </c>
+      <c r="H38" s="38">
+        <v>201.6</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" s="24">
+        <v>15060063602</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="40">
+        <f>SUM(D36:D38)</f>
+        <v>3</v>
+      </c>
+      <c r="G39" s="40">
+        <f>SUM(G36:G38)</f>
+        <v>807</v>
+      </c>
+      <c r="H39" s="40">
+        <f>SUM(H36:H38)</f>
+        <v>604.79999999999995</v>
+      </c>
+      <c r="I39" s="40">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="43">
+        <f>H39</f>
+        <v>604.79999999999995</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="43">
+        <f>G39-J39</f>
+        <v>807</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="43">
+        <f>G41-D41-I39</f>
+        <v>140.70000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>5.31</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+    </row>
+    <row r="45" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23">
+        <v>90</v>
+      </c>
+      <c r="G45" s="23">
+        <v>90</v>
+      </c>
+      <c r="H45" s="38">
+        <v>70</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L45" s="24">
         <v>18559903536</v>
       </c>
-      <c r="L25" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="M45" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="40">
+        <f>SUM(D45:D45)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="40">
+        <f>SUM(G45:G45)</f>
+        <v>90</v>
+      </c>
+      <c r="H46" s="40">
+        <f>SUM(H45:H45)</f>
+        <v>70</v>
+      </c>
+      <c r="I46" s="40"/>
+    </row>
+    <row r="48" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="43">
+        <f>H46</f>
+        <v>70</v>
+      </c>
+      <c r="F48" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23">
-        <v>94500</v>
-      </c>
-      <c r="F26" s="23">
-        <v>619</v>
-      </c>
-      <c r="G26" s="23">
-        <v>619</v>
-      </c>
-      <c r="H26" s="38">
-        <v>492</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="24">
-        <v>18933367700</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
-      <c r="B27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19">
-        <v>38700</v>
-      </c>
-      <c r="F27" s="19">
-        <v>269</v>
-      </c>
-      <c r="G27" s="19">
-        <v>269</v>
-      </c>
-      <c r="H27" s="37">
-        <v>201.6</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" s="20">
-        <v>13713671114</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="40">
-        <f>SUM(D25:D27)</f>
-        <v>3</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40">
-        <f>SUM(G25:G27)</f>
-        <v>1047</v>
-      </c>
-      <c r="H28" s="40">
-        <f>SUM(H25:H27)</f>
-        <v>817.44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="43">
-        <f>H28</f>
-        <v>817.44</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="43">
-        <f>G28-I28</f>
-        <v>1047</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="43">
-        <f>G30-D30</f>
-        <v>229.55999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-    </row>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-    </row>
-    <row r="33" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23">
-        <v>38700</v>
-      </c>
-      <c r="F33" s="23">
-        <v>269</v>
-      </c>
-      <c r="G33" s="23">
-        <v>269</v>
-      </c>
-      <c r="H33" s="38">
-        <v>201.6</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="24">
-        <v>15600527500</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="72"/>
-      <c r="B34" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19">
-        <v>38700</v>
-      </c>
-      <c r="F34" s="19">
-        <v>269</v>
-      </c>
-      <c r="G34" s="19">
-        <v>269</v>
-      </c>
-      <c r="H34" s="37">
-        <v>201.6</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="20">
-        <v>13411380392</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="23">
-        <v>1</v>
-      </c>
-      <c r="E35" s="23">
-        <v>38700</v>
-      </c>
-      <c r="F35" s="23">
-        <v>269</v>
-      </c>
-      <c r="G35" s="23">
-        <v>269</v>
-      </c>
-      <c r="H35" s="38">
-        <v>201.6</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="24">
-        <v>15060063602</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="40">
-        <f>SUM(D33:D35)</f>
-        <v>3</v>
-      </c>
-      <c r="G36" s="40">
-        <f>SUM(G33:G35)</f>
-        <v>807</v>
-      </c>
-      <c r="H36" s="40">
-        <f>SUM(H33:H35)</f>
-        <v>604.79999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="43">
-        <f>H36</f>
-        <v>604.79999999999995</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="43">
-        <f>G36-I36</f>
-        <v>807</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="43">
-        <f>G38-D38</f>
-        <v>202.20000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G48" s="43">
+        <f>G46-J46</f>
+        <v>90</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="43">
+        <f>G48-D48-I46</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="I3:I7"/>
+  <mergeCells count="18">
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" xr:uid="{FE63C5DD-506A-4AA8-8FE3-B3679D177312}"/>
-    <hyperlink ref="B30" r:id="rId2" xr:uid="{3DA25331-B954-4981-8894-36F5CACEC78B}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{404463A6-229E-4E90-80A2-C3980DEF4A1C}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{3DA25331-B954-4981-8894-36F5CACEC78B}"/>
+    <hyperlink ref="B41" r:id="rId3" xr:uid="{404463A6-229E-4E90-80A2-C3980DEF4A1C}"/>
+    <hyperlink ref="B48" r:id="rId4" xr:uid="{BD26AD04-F8D0-4221-8BF5-E62C0BB0952A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A68A04B-5B84-42BA-9BE8-59999E9EBA5D}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3607,59 +4013,57 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5.19</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -3674,13 +4078,13 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="20">
         <v>13716147057</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3690,13 +4094,13 @@
     </row>
     <row r="5" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="23">
         <v>1</v>
@@ -3713,24 +4117,24 @@
         <v>1.57</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="24">
         <v>13515219857</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -3745,13 +4149,13 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="20">
         <v>18933367700</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,13 +4165,13 @@
     </row>
     <row r="8" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
@@ -3781,25 +4185,25 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="108">
+        <v>13852092313</v>
+      </c>
+      <c r="L8" s="110" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="68">
-        <v>13852092313</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -3813,9 +4217,9 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D10" s="40">
@@ -3835,45 +4239,626 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
-        <v>113</v>
+      <c r="B12" s="58" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D12" s="43">
-        <v>1034.7</v>
+        <v>1034.51</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="43">
         <f>G10-I10</f>
         <v>1184.43</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J12" s="43">
         <f>G12-D12</f>
-        <v>149.73000000000002</v>
+        <v>149.92000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7">
+        <v>179</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="104">
+        <v>18222242851</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>185</v>
+      </c>
+      <c r="G17" s="11">
+        <v>185</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="107"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103"/>
+      <c r="B18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <v>309</v>
+      </c>
+      <c r="G18" s="13">
+        <v>309</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="96">
+        <v>10</v>
+      </c>
+      <c r="J18" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="108">
+        <v>18933367700</v>
+      </c>
+      <c r="L18" s="110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="103"/>
+      <c r="B19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>309</v>
+      </c>
+      <c r="G19" s="17">
+        <v>309</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="111"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>39000</v>
+      </c>
+      <c r="F22" s="19">
+        <v>228</v>
+      </c>
+      <c r="G22" s="19">
+        <v>228</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="20">
+        <v>18875099023</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76"/>
+      <c r="B23" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>453.8</v>
+      </c>
+      <c r="G23" s="23">
+        <v>453.8</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="24">
+        <v>13697286210</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="40">
+        <f>SUM(D16:D23)</f>
+        <v>6</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40">
+        <f>SUM(G16:G23)</f>
+        <v>1663.8</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40">
+        <f>SUM(I16:I23)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1452.68</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="43">
+        <f>G24-I24</f>
+        <v>1653.8</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="43">
+        <f>G26-D26</f>
+        <v>201.11999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="23">
+        <v>1</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23">
+        <v>359</v>
+      </c>
+      <c r="G30" s="96">
+        <v>580</v>
+      </c>
+      <c r="H30" s="96">
+        <v>509.25</v>
+      </c>
+      <c r="I30" s="96">
+        <v>3.48</v>
+      </c>
+      <c r="J30" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="108">
+        <v>18117208319</v>
+      </c>
+      <c r="L30" s="108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23">
+        <v>225</v>
+      </c>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="40">
+        <f>SUM(D30:D31)</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40">
+        <f>SUM(G30:G31)</f>
+        <v>580</v>
+      </c>
+      <c r="H32" s="40">
+        <f>SUM(H30:H31)</f>
+        <v>509.25</v>
+      </c>
+      <c r="I32" s="40">
+        <f>SUM(I30:I31)</f>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="43">
+        <f>H32</f>
+        <v>509.25</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="43">
+        <f>G32-I32</f>
+        <v>576.52</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="43">
+        <f>G34-D34</f>
+        <v>67.269999999999982</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{5305CDA7-C4D4-4672-939D-C73693604BDA}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{1871C8F9-78F1-4327-BD6B-3BAD5E5E1BE3}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{285DE6DE-CAE6-4A7D-A21A-55045D44044A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512439F7-7E5E-437B-B280-2ECDF8D6067E}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
+        <v>1598</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1598</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1498</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="24">
+        <v>13697286210</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="40">
+        <f>SUM(D1:D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40">
+        <f>SUM(G1:G3)</f>
+        <v>1598</v>
+      </c>
+      <c r="H4" s="40">
+        <f>SUM(H1:H3)</f>
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="43">
+        <f>H4</f>
+        <v>1498</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="43">
+        <f>G4-I4</f>
+        <v>1598</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="43">
+        <f>G6-D6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <v>1598</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1598</v>
+      </c>
+      <c r="H10" s="38">
+        <v>1498</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="24">
+        <v>18117215920</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="40">
+        <f>SUM(D8:D10)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40">
+        <f>SUM(G8:G10)</f>
+        <v>1598</v>
+      </c>
+      <c r="H11" s="40">
+        <f>SUM(H8:H10)</f>
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="43">
+        <f>H11</f>
+        <v>1498</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="43">
+        <f>G11-I11</f>
+        <v>1598</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="43">
+        <f>G13-D13</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/X-C.xlsx
+++ b/X-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91326D1C-50C5-458A-8469-E6D8F1B474E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00ECD7-8ECD-46D1-85A0-84FA8525CEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="100帮" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{0AA55580-6B20-42D7-980C-BBA8981D9776}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{0AA55580-6B20-42D7-980C-BBA8981D9776}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{5BB87A58-FC23-4D67-984B-5F2B42904BD1}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{5BB87A58-FC23-4D67-984B-5F2B42904BD1}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{4D1A2276-5F08-4009-AC6B-263EC2EFC4A2}">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{4D1A2276-5F08-4009-AC6B-263EC2EFC4A2}">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{4D45D565-A6FB-44B4-B50D-43A25D0885D8}">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{4D45D565-A6FB-44B4-B50D-43A25D0885D8}">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{E85D3969-B768-4EE9-8E91-5D4B4354ECEC}">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{E85D3969-B768-4EE9-8E91-5D4B4354ECEC}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{C9A16ECA-25B2-49D8-9F21-7383435646CC}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{C9A16ECA-25B2-49D8-9F21-7383435646CC}">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{1E6E50F2-F1D4-4903-BA54-9BFDEDDD5668}">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{1E6E50F2-F1D4-4903-BA54-9BFDEDDD5668}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{79694C48-738A-4C95-957F-9D685B7ABCDF}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{79694C48-738A-4C95-957F-9D685B7ABCDF}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{122D0FDE-1837-467C-A6D0-9009864D9F07}">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{122D0FDE-1837-467C-A6D0-9009864D9F07}">
       <text>
         <r>
           <rPr>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -824,6 +824,14 @@
   </si>
   <si>
     <t>黑色短袖</t>
+  </si>
+  <si>
+    <t>国内运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内邮费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,7 +981,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +1010,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1397,6 +1411,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1418,7 +1445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,11 +1665,113 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1659,70 +1788,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,18 +1846,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1764,7 +1857,7 @@
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
@@ -1783,6 +1876,40 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -1930,7 +2057,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -1939,6 +2066,25 @@
         <bottom style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2056,19 +2202,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E444BC7-8F2D-4752-A971-24F798CFEC1C}" name="表1" displayName="表1" ref="A1:H11" totalsRowCount="1" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" headerRowCellStyle="汇总" dataCellStyle="汇总">
-  <autoFilter ref="A1:H10" xr:uid="{F2ABA23D-97C5-4A39-B304-D7EF47FB4C31}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
-    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="时间" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
-    <tableColumn id="8" xr3:uid="{A02C0EDF-44DE-4BDF-831D-A8954943C323}" name="数量" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
-    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
-    <tableColumn id="6" xr3:uid="{3ABFCA13-7E8E-4E17-ADB9-11138FE11265}" name="国际运费" dataDxfId="10" totalsRowDxfId="2" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
-    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="汇总" totalsRowCellStyle="汇总">
-      <calculatedColumnFormula>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E444BC7-8F2D-4752-A971-24F798CFEC1C}" name="表1" displayName="表1" ref="A1:I11" totalsRowCount="1" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="A1:I10" xr:uid="{F2ABA23D-97C5-4A39-B304-D7EF47FB4C31}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
+    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="时间" dataDxfId="16" totalsRowDxfId="7" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
+    <tableColumn id="8" xr3:uid="{A02C0EDF-44DE-4BDF-831D-A8954943C323}" name="数量" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="14" totalsRowDxfId="5" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{3ABFCA13-7E8E-4E17-ADB9-11138FE11265}" name="国际运费" dataDxfId="12" totalsRowDxfId="3" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="9" xr3:uid="{541C13D2-C2D2-4212-83DE-5B16D5FD4D37}" name="国内运费" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="汇总"/>
+    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="汇总" totalsRowCellStyle="汇总">
+      <calculatedColumnFormula>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="APP" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="APP" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2390,10 +2537,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2454,10 +2601,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2497,21 +2644,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7FBE1-8ECA-46E5-9F0F-953899B69DB4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
@@ -2530,17 +2677,20 @@
       <c r="F1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -2560,15 +2710,18 @@
         <v>246.4</v>
       </c>
       <c r="G2" s="51">
-        <f>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
-        <v>278.7399999999999</v>
-      </c>
-      <c r="H2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="51">
+        <f>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>214.7399999999999</v>
+      </c>
+      <c r="I2" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -2588,21 +2741,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="53">
-        <f>E3-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
-        <v>149.92000000000007</v>
-      </c>
-      <c r="H3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="53">
+        <f>E3-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>133.92000000000007</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" t="s">
         <v>127</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
         <v>3</v>
       </c>
@@ -2622,15 +2778,18 @@
         <v>60.4</v>
       </c>
       <c r="G4" s="53">
-        <f>E4-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
-        <v>169.15999999999994</v>
-      </c>
-      <c r="H4" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="53">
+        <f>E4-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>153.15999999999994</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
         <v>4</v>
       </c>
@@ -2650,15 +2809,18 @@
         <v>61.5</v>
       </c>
       <c r="G5" s="53">
-        <f>E5-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
-        <v>140.70000000000005</v>
-      </c>
-      <c r="H5" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="53">
+        <f>E5-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>116.70000000000005</v>
+      </c>
+      <c r="I5" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>5</v>
       </c>
@@ -2677,15 +2839,16 @@
       <c r="F6" s="53">
         <v>0</v>
       </c>
-      <c r="G6" s="53">
-        <f>E6-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53">
+        <f>E6-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>201.11999999999989</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <v>6</v>
       </c>
@@ -2704,16 +2867,17 @@
       <c r="F7" s="53">
         <v>0</v>
       </c>
-      <c r="G7" s="53">
-        <f>E7-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
+        <f>E7-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>100</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="I7" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <v>7</v>
       </c>
@@ -2732,15 +2896,16 @@
       <c r="F8" s="53">
         <v>0</v>
       </c>
-      <c r="G8" s="53">
-        <f>E8-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
+        <f>E8-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>100</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="I8" s="69" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <v>8</v>
       </c>
@@ -2759,15 +2924,16 @@
       <c r="F9" s="53">
         <v>0</v>
       </c>
-      <c r="G9" s="53">
-        <f>E9-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53">
+        <f>E9-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>67.269999999999982</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="I9" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <v>9</v>
       </c>
@@ -2783,31 +2949,39 @@
       <c r="E10" s="53">
         <v>90</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53">
-        <f>E10-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]</f>
-        <v>20</v>
-      </c>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="53">
+        <v>14.8</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53">
+        <f>E10-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="72"/>
       <c r="C11" s="63"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="53"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="53"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C2:C18)</f>
         <v>39</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="59">
         <f>SUM(G2:G18)</f>
-        <v>1226.9099999999999</v>
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H2:H18)</f>
+        <v>1092.1099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2833,11 +3007,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAC304-3998-4D5B-9867-658A3579CE90}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2845,19 +3019,19 @@
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2877,19 +3051,22 @@
         <v>121</v>
       </c>
       <c r="J1" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>5.19</v>
       </c>
@@ -2901,13 +3078,14 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -2933,21 +3111,22 @@
         <v>53</v>
       </c>
       <c r="I3" s="57"/>
-      <c r="J3" s="83">
+      <c r="J3" s="81"/>
+      <c r="K3" s="87">
         <v>10</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="L3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="77">
+      <c r="M3" s="111">
         <v>13814694770</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="N3" s="84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2971,13 +3150,16 @@
         <v>53</v>
       </c>
       <c r="I4" s="32"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="J4" s="117">
+        <v>8</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="85"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -3001,13 +3183,14 @@
         <v>55</v>
       </c>
       <c r="I5" s="32"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="81"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="85"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -3031,13 +3214,14 @@
         <v>55</v>
       </c>
       <c r="I6" s="32"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="85"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="91"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3061,13 +3245,14 @@
         <v>48</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="82"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="86"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -3083,28 +3268,31 @@
       <c r="F8" s="13">
         <v>75</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="106">
         <v>241.39</v>
       </c>
       <c r="H8" s="34">
         <v>48</v>
       </c>
       <c r="I8" s="34"/>
-      <c r="J8" s="91">
+      <c r="J8" s="114">
+        <v>8</v>
+      </c>
+      <c r="K8" s="95">
         <v>6.65</v>
       </c>
-      <c r="K8" s="94" t="s">
+      <c r="L8" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="94">
+      <c r="M8" s="100">
         <v>17375302553</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="N8" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
@@ -3120,18 +3308,19 @@
       <c r="F9" s="15">
         <v>85</v>
       </c>
-      <c r="G9" s="100"/>
+      <c r="G9" s="107"/>
       <c r="H9" s="35">
         <v>55</v>
       </c>
       <c r="I9" s="35"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="89"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="93"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
       <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
@@ -3147,18 +3336,19 @@
       <c r="F10" s="17">
         <v>79</v>
       </c>
-      <c r="G10" s="101"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="36">
         <v>53</v>
       </c>
       <c r="I10" s="36"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="94"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91"/>
       <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3182,21 +3372,24 @@
         <v>106</v>
       </c>
       <c r="I11" s="37"/>
-      <c r="J11" s="29">
+      <c r="J11" s="76">
+        <v>8</v>
+      </c>
+      <c r="K11" s="29">
         <v>0.95</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="L11" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="20">
+      <c r="M11" s="20">
         <v>18840654030</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -3220,21 +3413,24 @@
         <v>53</v>
       </c>
       <c r="I12" s="65"/>
-      <c r="J12" s="96">
+      <c r="J12" s="114">
+        <v>8</v>
+      </c>
+      <c r="K12" s="102">
         <v>0.95</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="L12" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="94">
+      <c r="M12" s="100">
         <v>13952822468</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="N12" s="92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="91"/>
       <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
@@ -3258,13 +3454,14 @@
         <v>53</v>
       </c>
       <c r="I13" s="66"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="90"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="94"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
       <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
@@ -3288,19 +3485,22 @@
         <v>53</v>
       </c>
       <c r="I14" s="37"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="76">
+        <v>8</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="20">
+      <c r="M14" s="20">
         <v>19810952575</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3324,18 +3524,21 @@
         <v>53</v>
       </c>
       <c r="I15" s="38"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="77">
+        <v>8</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="24">
+      <c r="M15" s="24">
         <v>18664536540</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>58</v>
       </c>
@@ -3362,23 +3565,25 @@
         <v>201.6</v>
       </c>
       <c r="I16" s="37"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="20">
+      <c r="M16" s="20">
         <v>18875099023</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>58</v>
       </c>
@@ -3405,19 +3610,22 @@
         <v>139.19999999999999</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
+      <c r="J18" s="77">
+        <v>8</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="24">
+      <c r="M18" s="24">
         <v>13852092313</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="N18" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="110" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -3443,19 +3651,20 @@
         <v>131.4</v>
       </c>
       <c r="I19" s="37"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19" t="s">
+      <c r="J19" s="76"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="20">
+      <c r="M19" s="20">
         <v>13697286210</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="N19" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
+    <row r="20" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
       <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
@@ -3479,18 +3688,21 @@
         <v>94.5</v>
       </c>
       <c r="I20" s="38"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="77">
+        <v>8</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="24">
+      <c r="M20" s="24">
         <v>15546622309</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="N20" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D21" s="40">
         <f>SUM(D4:D20)</f>
         <v>17</v>
@@ -3509,12 +3721,16 @@
         <v>246.4</v>
       </c>
       <c r="J21" s="40">
-        <f>SUM(J3:J16)</f>
+        <f>SUM(J4:J20)</f>
+        <v>64</v>
+      </c>
+      <c r="K21" s="40">
+        <f>SUM(K3:K16)</f>
         <v>18.549999999999997</v>
       </c>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="23" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="39"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="58" t="s">
         <v>94</v>
       </c>
@@ -3529,25 +3745,25 @@
         <v>59</v>
       </c>
       <c r="G23" s="43">
-        <f>G21-J21</f>
+        <f>G21-K21</f>
         <v>1776.84</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="L23" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="43">
-        <f>G23-D23-I21</f>
-        <v>278.7399999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="43">
+        <f>G23-D23-I21-J21</f>
+        <v>214.7399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>5.21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>77</v>
       </c>
@@ -3573,19 +3789,22 @@
       <c r="I27" s="37">
         <v>17.3</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19" t="s">
+      <c r="J27" s="37">
+        <v>8</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="20">
+      <c r="M27" s="20">
         <v>18559903536</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="N27" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+    <row r="28" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="110" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -3612,19 +3831,20 @@
       <c r="I28" s="38">
         <v>19.8</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
+      <c r="J28" s="38"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="24">
+      <c r="M28" s="24">
         <v>18933367700</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="N28" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
+    <row r="29" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -3649,18 +3869,21 @@
       <c r="I29" s="37">
         <v>23.3</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19" t="s">
+      <c r="J29" s="37">
+        <v>8</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="20">
+      <c r="M29" s="20">
         <v>13713671114</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="N29" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D30" s="40">
         <f>SUM(D27:D29)</f>
         <v>3</v>
@@ -3678,8 +3901,12 @@
         <f>SUM(I27:I29)</f>
         <v>60.400000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="40">
+        <f>SUM(J27:J29)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="58" t="s">
         <v>95</v>
       </c>
@@ -3694,34 +3921,34 @@
         <v>59</v>
       </c>
       <c r="G32" s="43">
-        <f>G30-J30</f>
+        <f>G30-K30</f>
         <v>1047</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="L32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="43">
-        <f>G32-D32-I30</f>
-        <v>169.15999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="43">
+        <f>G32-D32-I30-J30</f>
+        <v>153.15999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
     </row>
-    <row r="34" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
     </row>
-    <row r="35" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>5.21</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
     </row>
-    <row r="36" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+    <row r="36" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -3746,19 +3973,22 @@
         <v>201.6</v>
       </c>
       <c r="I36" s="38"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23" t="s">
+      <c r="J36" s="38">
+        <v>8</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="24">
+      <c r="M36" s="24">
         <v>15600527500</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
+    <row r="37" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="109"/>
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
@@ -3781,19 +4011,22 @@
         <v>201.6</v>
       </c>
       <c r="I37" s="37"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19" t="s">
+      <c r="J37" s="37">
+        <v>8</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="20">
+      <c r="M37" s="20">
         <v>13411380392</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="N37" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+    <row r="38" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="109"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -3816,18 +4049,21 @@
         <v>201.6</v>
       </c>
       <c r="I38" s="38"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23" t="s">
+      <c r="J38" s="38">
+        <v>8</v>
+      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="L38" s="24">
+      <c r="M38" s="24">
         <v>15060063602</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="N38" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D39" s="40">
         <f>SUM(D36:D38)</f>
         <v>3</v>
@@ -3843,8 +4079,12 @@
       <c r="I39" s="40">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="40">
+        <f>SUM(J36:J38)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="58" t="s">
         <v>102</v>
       </c>
@@ -3859,27 +4099,27 @@
         <v>59</v>
       </c>
       <c r="G41" s="43">
-        <f>G39-J39</f>
+        <f>G39-K39</f>
         <v>807</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="L41" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="43">
-        <f>G41-D41-I39</f>
-        <v>140.70000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="43">
+        <f>G41-D41-I39-J39</f>
+        <v>116.70000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>5.31</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
     </row>
-    <row r="45" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
         <v>129</v>
       </c>
@@ -3902,19 +4142,22 @@
       <c r="H45" s="38">
         <v>70</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23" t="s">
+      <c r="I45" s="38">
+        <v>14.8</v>
+      </c>
+      <c r="J45" s="38"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L45" s="24">
+      <c r="M45" s="24">
         <v>18559903536</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="N45" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40">
         <f>SUM(D45:D45)</f>
         <v>1</v>
@@ -3927,9 +4170,12 @@
         <f>SUM(H45:H45)</f>
         <v>70</v>
       </c>
-      <c r="I46" s="40"/>
-    </row>
-    <row r="48" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="40">
+        <v>14.8</v>
+      </c>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="48" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="58" t="s">
         <v>128</v>
       </c>
@@ -3944,38 +4190,41 @@
         <v>59</v>
       </c>
       <c r="G48" s="43">
-        <f>G46-J46</f>
+        <f>G46-K46</f>
         <v>90</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="L48" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="43">
+      <c r="M48" s="43">
         <f>G48-D48-I46</f>
-        <v>20</v>
+        <v>5.1999999999999993</v>
       </c>
     </row>
     <row r="49" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="G8:G10"/>
+  <mergeCells count="21">
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="N3:N7"/>
     <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="G8:G10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3992,11 +4241,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A68A04B-5B84-42BA-9BE8-59999E9EBA5D}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4004,19 +4253,19 @@
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4033,19 +4282,22 @@
         <v>64</v>
       </c>
       <c r="I1" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5.19</v>
       </c>
@@ -4054,8 +4306,9 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -4076,23 +4329,26 @@
         <v>346</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="19">
+        <v>8</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="20">
+      <c r="L3" s="20">
         <v>13716147057</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>5.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -4113,20 +4369,23 @@
         <v>262</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="44">
+      <c r="I5" s="23">
+        <v>8</v>
+      </c>
+      <c r="J5" s="44">
         <v>1.57</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="24">
+      <c r="L5" s="24">
         <v>13515219857</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -4148,22 +4407,23 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="20">
+      <c r="L6" s="20">
         <v>18933367700</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5.21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -4184,18 +4444,19 @@
         <v>130</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="108" t="s">
+      <c r="I8" s="126"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="108">
+      <c r="L8" s="120">
         <v>13852092313</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="M8" s="124" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -4216,12 +4477,13 @@
         <v>149</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="111"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="127"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="125"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D10" s="40">
         <f>SUM(D3:D9)</f>
         <v>5</v>
@@ -4235,10 +4497,14 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40">
         <f>SUM(I3:I9)</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="40">
+        <f>SUM(J3:J9)</f>
         <v>1.57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="58" t="s">
         <v>95</v>
       </c>
@@ -4252,25 +4518,25 @@
         <v>59</v>
       </c>
       <c r="G12" s="43">
-        <f>G10-I10</f>
+        <f>G10-J10</f>
         <v>1184.43</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="J12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="43">
-        <f>G12-D12</f>
-        <v>149.92000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="43">
+        <f>G12-D12-I10</f>
+        <v>133.92000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>5.21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -4292,18 +4558,19 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="104">
+      <c r="L16" s="130">
         <v>18222242851</v>
       </c>
-      <c r="L16" s="106" t="s">
+      <c r="M16" s="132" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103" t="s">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4324,12 +4591,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="107"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="133"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
       <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
@@ -4347,21 +4615,22 @@
         <v>309</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="96">
+      <c r="I18" s="79"/>
+      <c r="J18" s="102">
         <v>10</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="K18" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="108">
+      <c r="L18" s="120">
         <v>18933367700</v>
       </c>
-      <c r="L18" s="110" t="s">
+      <c r="M18" s="124" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="129"/>
       <c r="B19" s="16" t="s">
         <v>101</v>
       </c>
@@ -4379,19 +4648,20 @@
         <v>309</v>
       </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="111"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="80"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="125"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>5.22</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -4413,19 +4683,20 @@
         <v>228</v>
       </c>
       <c r="H22" s="37"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="37"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="20">
+      <c r="L22" s="20">
         <v>18875099023</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="M22" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
+    <row r="23" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
       <c r="B23" s="22" t="s">
         <v>111</v>
       </c>
@@ -4443,18 +4714,19 @@
         <v>453.8</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="24">
+      <c r="L23" s="24">
         <v>13697286210</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="M23" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D24" s="40">
         <f>SUM(D16:D23)</f>
         <v>6</v>
@@ -4466,12 +4738,13 @@
         <v>1663.8</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="40">
-        <f>SUM(I16:I23)</f>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40">
+        <f>SUM(J16:J23)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="58" t="s">
         <v>102</v>
       </c>
@@ -4485,25 +4758,25 @@
         <v>59</v>
       </c>
       <c r="G26" s="43">
-        <f>G24-I24</f>
+        <f>G24-J24</f>
         <v>1653.8</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="J26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="43">
+      <c r="K26" s="43">
         <f>G26-D26</f>
         <v>201.11999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>5.24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
@@ -4520,26 +4793,27 @@
       <c r="F30" s="23">
         <v>359</v>
       </c>
-      <c r="G30" s="96">
+      <c r="G30" s="102">
         <v>580</v>
       </c>
-      <c r="H30" s="96">
+      <c r="H30" s="102">
         <v>509.25</v>
       </c>
-      <c r="I30" s="96">
+      <c r="I30" s="73"/>
+      <c r="J30" s="102">
         <v>3.48</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="K30" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="108">
+      <c r="L30" s="120">
         <v>18117208319</v>
       </c>
-      <c r="L30" s="108" t="s">
+      <c r="M30" s="120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
@@ -4556,14 +4830,15 @@
       <c r="F31" s="23">
         <v>225</v>
       </c>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-    </row>
-    <row r="32" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+    </row>
+    <row r="32" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D32" s="40">
         <f>SUM(D30:D31)</f>
         <v>2</v>
@@ -4578,12 +4853,13 @@
         <f>SUM(H30:H31)</f>
         <v>509.25</v>
       </c>
-      <c r="I32" s="40">
-        <f>SUM(I30:I31)</f>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40">
+        <f>SUM(J30:J31)</f>
         <v>3.48</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>124</v>
       </c>
@@ -4598,39 +4874,40 @@
         <v>59</v>
       </c>
       <c r="G34" s="43">
-        <f>G32-I32</f>
+        <f>G32-J32</f>
         <v>576.52</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="J34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="43">
+      <c r="K34" s="43">
         <f>G34-D34</f>
         <v>67.269999999999982</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:11" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="L30:L31"/>
+  <mergeCells count="20">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M30:M31"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4663,10 +4940,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>

--- a/X-C.xlsx
+++ b/X-C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00ECD7-8ECD-46D1-85A0-84FA8525CEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6844F9-8807-40E6-9010-328DCA5A859A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="100帮" sheetId="4" r:id="rId1"/>
@@ -182,6 +182,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{EEAF51AF-F2FC-4F21-BEFA-2297D020B4FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+分两次付款，90+10
+10为后补运费</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -302,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -831,6 +858,10 @@
   </si>
   <si>
     <t>国内邮费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1445,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,8 +1693,134 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,96 +1828,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1773,38 +1840,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1812,12 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1830,23 +1888,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1859,23 +1905,23 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -1927,6 +1973,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -1944,6 +2007,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -1961,6 +2041,57 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
@@ -2030,6 +2161,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2205,17 +2353,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E444BC7-8F2D-4752-A971-24F798CFEC1C}" name="表1" displayName="表1" ref="A1:I11" totalsRowCount="1" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" headerRowCellStyle="汇总" dataCellStyle="汇总">
   <autoFilter ref="A1:I10" xr:uid="{F2ABA23D-97C5-4A39-B304-D7EF47FB4C31}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
-    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="时间" dataDxfId="16" totalsRowDxfId="7" dataCellStyle="超链接" totalsRowCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{E6B49A77-7544-4888-B89E-6DFD028332E1}" name="序号" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="超链接"/>
+    <tableColumn id="7" xr3:uid="{5085D3B0-B454-4F3F-9DEA-7D484A87C9BB}" name="时间" dataDxfId="16" totalsRowDxfId="7" dataCellStyle="超链接"/>
     <tableColumn id="8" xr3:uid="{A02C0EDF-44DE-4BDF-831D-A8954943C323}" name="数量" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="14" totalsRowDxfId="5" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
-    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
-    <tableColumn id="6" xr3:uid="{3ABFCA13-7E8E-4E17-ADB9-11138FE11265}" name="国际运费" dataDxfId="12" totalsRowDxfId="3" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="2" xr3:uid="{AF4F6A89-2274-4415-A9A7-1A8B6616B4A9}" name="总付款" dataDxfId="14" totalsRowDxfId="5" dataCellStyle="汇总"/>
+    <tableColumn id="3" xr3:uid="{E2348C38-A7F5-4E77-891B-81C53D12D9FE}" name="总收入" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{3ABFCA13-7E8E-4E17-ADB9-11138FE11265}" name="国际运费" dataDxfId="12" totalsRowDxfId="3" dataCellStyle="汇总"/>
     <tableColumn id="9" xr3:uid="{541C13D2-C2D2-4212-83DE-5B16D5FD4D37}" name="国内运费" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="汇总"/>
-    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="汇总" totalsRowCellStyle="汇总">
+    <tableColumn id="4" xr3:uid="{5FE51089-C9A0-451C-A4E3-B0A876AECE75}" name="+/-" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="汇总">
       <calculatedColumnFormula>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="APP" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="汇总" totalsRowCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{A192AF1A-3C87-483E-BF26-E32D6B5DAF4E}" name="APP" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2537,10 +2685,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2601,10 +2749,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2647,7 +2795,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2710,11 +2858,11 @@
         <v>246.4</v>
       </c>
       <c r="G2" s="51">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H2" s="51">
         <f>E2-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
-        <v>214.7399999999999</v>
+        <v>198.7399999999999</v>
       </c>
       <c r="I2" s="52" t="s">
         <v>110</v>
@@ -2778,11 +2926,11 @@
         <v>60.4</v>
       </c>
       <c r="G4" s="53">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H4" s="53">
         <f>E4-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
-        <v>153.15999999999994</v>
+        <v>145.15999999999994</v>
       </c>
       <c r="I4" s="52" t="s">
         <v>110</v>
@@ -2839,10 +2987,12 @@
       <c r="F6" s="53">
         <v>0</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="53">
+        <v>8</v>
+      </c>
       <c r="H6" s="53">
         <f>E6-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
-        <v>201.11999999999989</v>
+        <v>193.11999999999989</v>
       </c>
       <c r="I6" s="52" t="s">
         <v>107</v>
@@ -2867,7 +3017,9 @@
       <c r="F7" s="53">
         <v>0</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="53">
+        <v>0</v>
+      </c>
       <c r="H7" s="53">
         <f>E7-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>100</v>
@@ -2896,7 +3048,9 @@
       <c r="F8" s="53">
         <v>0</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="53">
+        <v>0</v>
+      </c>
       <c r="H8" s="53">
         <f>E8-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
         <v>100</v>
@@ -2924,10 +3078,12 @@
       <c r="F9" s="53">
         <v>0</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="53">
+        <v>8</v>
+      </c>
       <c r="H9" s="53">
         <f>E9-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
-        <v>67.269999999999982</v>
+        <v>59.269999999999982</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>107</v>
@@ -2947,41 +3103,52 @@
         <v>70</v>
       </c>
       <c r="E10" s="53">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F10" s="53">
         <v>14.8</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="53">
+        <v>8</v>
+      </c>
       <c r="H10" s="53">
         <f>E10-表1[[#This Row],[总付款]]-表1[[#This Row],[国际运费]]-表1[[#This Row],[国内运费]]</f>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="I10" s="53"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C2:C18)</f>
         <v>39</v>
       </c>
       <c r="G19" s="59">
         <f>SUM(G2:G18)</f>
-        <v>120</v>
-      </c>
-      <c r="H19">
+        <v>168</v>
+      </c>
+      <c r="H19" s="59">
         <f>SUM(H2:H18)</f>
-        <v>1092.1099999999999</v>
+        <v>1054.1099999999999</v>
+      </c>
+      <c r="J19" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="59">
+        <f>H19-L3</f>
+        <v>1044.1099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2998,9 +3165,10 @@
     <hyperlink ref="A10" location="'100帮 已下单'!B48" display="'100帮 已下单'!B48" xr:uid="{0A9C2834-BD94-4F5B-A801-CA425A8DD800}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3010,8 +3178,8 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3028,10 +3196,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3253,7 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="105" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -3111,22 +3279,22 @@
         <v>53</v>
       </c>
       <c r="I3" s="57"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="87">
+      <c r="J3" s="78"/>
+      <c r="K3" s="102">
         <v>10</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="111">
+      <c r="M3" s="90">
         <v>13814694770</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="99" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3150,16 +3318,16 @@
         <v>53</v>
       </c>
       <c r="I4" s="32"/>
-      <c r="J4" s="117">
+      <c r="J4" s="96">
         <v>8</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="85"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -3183,14 +3351,14 @@
         <v>55</v>
       </c>
       <c r="I5" s="32"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="85"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="100"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -3214,14 +3382,14 @@
         <v>55</v>
       </c>
       <c r="I6" s="32"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="85"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="100"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3245,14 +3413,14 @@
         <v>48</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="86"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -3268,31 +3436,31 @@
       <c r="F8" s="13">
         <v>75</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="118">
         <v>241.39</v>
       </c>
       <c r="H8" s="34">
         <v>48</v>
       </c>
       <c r="I8" s="34"/>
-      <c r="J8" s="114">
+      <c r="J8" s="93">
         <v>8</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="110">
         <v>6.65</v>
       </c>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="100">
+      <c r="M8" s="113">
         <v>17375302553</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="107" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
@@ -3308,19 +3476,19 @@
       <c r="F9" s="15">
         <v>85</v>
       </c>
-      <c r="G9" s="107"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="35">
         <v>55</v>
       </c>
       <c r="I9" s="35"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="108"/>
     </row>
     <row r="10" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
@@ -3336,19 +3504,19 @@
       <c r="F10" s="17">
         <v>79</v>
       </c>
-      <c r="G10" s="108"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="36">
         <v>53</v>
       </c>
       <c r="I10" s="36"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="109"/>
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3372,13 +3540,13 @@
         <v>106</v>
       </c>
       <c r="I11" s="37"/>
-      <c r="J11" s="76">
+      <c r="J11" s="73">
         <v>8</v>
       </c>
       <c r="K11" s="29">
         <v>0.95</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="72" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="20">
@@ -3389,7 +3557,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -3413,24 +3581,24 @@
         <v>53</v>
       </c>
       <c r="I12" s="65"/>
-      <c r="J12" s="114">
+      <c r="J12" s="93">
         <v>8</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="115">
         <v>0.95</v>
       </c>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="100">
+      <c r="M12" s="113">
         <v>13952822468</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="107" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
@@ -3454,14 +3622,14 @@
         <v>53</v>
       </c>
       <c r="I13" s="66"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="109"/>
     </row>
     <row r="14" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
@@ -3485,11 +3653,11 @@
         <v>53</v>
       </c>
       <c r="I14" s="37"/>
-      <c r="J14" s="76">
+      <c r="J14" s="73">
         <v>8</v>
       </c>
       <c r="K14" s="19"/>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="72" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="20">
@@ -3500,7 +3668,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3524,11 +3692,11 @@
         <v>53</v>
       </c>
       <c r="I15" s="38"/>
-      <c r="J15" s="77">
+      <c r="J15" s="74">
         <v>8</v>
       </c>
       <c r="K15" s="23"/>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="72" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="24">
@@ -3565,9 +3733,11 @@
         <v>201.6</v>
       </c>
       <c r="I16" s="37"/>
-      <c r="J16" s="76"/>
+      <c r="J16" s="73">
+        <v>8</v>
+      </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="72" t="s">
         <v>103</v>
       </c>
       <c r="M16" s="20">
@@ -3610,11 +3780,11 @@
         <v>139.19999999999999</v>
       </c>
       <c r="I18" s="38"/>
-      <c r="J18" s="77">
+      <c r="J18" s="74">
         <v>8</v>
       </c>
       <c r="K18" s="23"/>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="72" t="s">
         <v>44</v>
       </c>
       <c r="M18" s="24">
@@ -3625,7 +3795,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="86" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -3651,9 +3821,11 @@
         <v>131.4</v>
       </c>
       <c r="I19" s="37"/>
-      <c r="J19" s="76"/>
+      <c r="J19" s="73">
+        <v>8</v>
+      </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="72" t="s">
         <v>37</v>
       </c>
       <c r="M19" s="20">
@@ -3664,7 +3836,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="22" t="s">
         <v>39</v>
       </c>
@@ -3688,11 +3860,11 @@
         <v>94.5</v>
       </c>
       <c r="I20" s="38"/>
-      <c r="J20" s="77">
+      <c r="J20" s="74">
         <v>8</v>
       </c>
       <c r="K20" s="23"/>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="72" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="24">
@@ -3722,7 +3894,7 @@
       </c>
       <c r="J21" s="40">
         <f>SUM(J4:J20)</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K21" s="40">
         <f>SUM(K3:K16)</f>
@@ -3753,7 +3925,7 @@
       </c>
       <c r="M23" s="43">
         <f>G23-D23-I21-J21</f>
-        <v>214.7399999999999</v>
+        <v>198.7399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3793,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="19"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="72" t="s">
         <v>82</v>
       </c>
       <c r="M27" s="20">
@@ -3804,7 +3976,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -3831,9 +4003,11 @@
       <c r="I28" s="38">
         <v>19.8</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="38">
+        <v>8</v>
+      </c>
       <c r="K28" s="23"/>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="72" t="s">
         <v>54</v>
       </c>
       <c r="M28" s="24">
@@ -3844,7 +4018,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
@@ -3873,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="K29" s="19"/>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="72" t="s">
         <v>78</v>
       </c>
       <c r="M29" s="20">
@@ -3903,7 +4077,7 @@
       </c>
       <c r="J30" s="40">
         <f>SUM(J27:J29)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3929,7 +4103,7 @@
       </c>
       <c r="M32" s="43">
         <f>G32-D32-I30-J30</f>
-        <v>153.15999999999994</v>
+        <v>145.15999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3948,7 +4122,7 @@
       <c r="C35" s="46"/>
     </row>
     <row r="36" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="85" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -3977,7 +4151,7 @@
         <v>8</v>
       </c>
       <c r="K36" s="23"/>
-      <c r="L36" s="75" t="s">
+      <c r="L36" s="72" t="s">
         <v>89</v>
       </c>
       <c r="M36" s="24">
@@ -3988,7 +4162,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
@@ -4015,7 +4189,7 @@
         <v>8</v>
       </c>
       <c r="K37" s="19"/>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="72" t="s">
         <v>91</v>
       </c>
       <c r="M37" s="20">
@@ -4026,7 +4200,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4227,7 @@
         <v>8</v>
       </c>
       <c r="K38" s="23"/>
-      <c r="L38" s="75" t="s">
+      <c r="L38" s="72" t="s">
         <v>97</v>
       </c>
       <c r="M38" s="24">
@@ -4137,7 +4311,7 @@
         <v>90</v>
       </c>
       <c r="G45" s="23">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H45" s="38">
         <v>70</v>
@@ -4145,7 +4319,9 @@
       <c r="I45" s="38">
         <v>14.8</v>
       </c>
-      <c r="J45" s="38"/>
+      <c r="J45" s="38">
+        <v>8</v>
+      </c>
       <c r="K45" s="23"/>
       <c r="L45" s="23" t="s">
         <v>82</v>
@@ -4164,7 +4340,7 @@
       </c>
       <c r="G46" s="40">
         <f>SUM(G45:G45)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H46" s="40">
         <f>SUM(H45:H45)</f>
@@ -4173,7 +4349,9 @@
       <c r="I46" s="40">
         <v>14.8</v>
       </c>
-      <c r="J46" s="40"/>
+      <c r="J46" s="40">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="58" t="s">
@@ -4191,28 +4369,19 @@
       </c>
       <c r="G48" s="43">
         <f>G46-K46</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L48" s="45" t="s">
         <v>72</v>
       </c>
       <c r="M48" s="43">
-        <f>G48-D48-I46</f>
-        <v>5.1999999999999993</v>
+        <f>G48-D48-I46-J46</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="49" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J4:J7"/>
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="K3:K7"/>
     <mergeCell ref="A3:A15"/>
@@ -4225,6 +4394,15 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="G8:G10"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4244,8 +4422,8 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4262,10 +4440,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="19"/>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="72" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="20">
@@ -4375,7 +4553,7 @@
       <c r="J5" s="44">
         <v>1.57</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="72" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="24">
@@ -4408,7 +4586,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="81" t="s">
         <v>54</v>
       </c>
       <c r="L6" s="20">
@@ -4444,15 +4622,15 @@
         <v>130</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="126"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="122" t="s">
+      <c r="K8" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="131">
         <v>13852092313</v>
       </c>
-      <c r="M8" s="124" t="s">
+      <c r="M8" s="133" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4477,11 +4655,11 @@
         <v>149</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="125"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="134"/>
     </row>
     <row r="10" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D10" s="40">
@@ -4557,20 +4735,22 @@
         <v>179</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="137">
+        <v>8</v>
+      </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="130" t="s">
+      <c r="K16" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="130">
+      <c r="L16" s="125">
         <v>18222242851</v>
       </c>
-      <c r="M16" s="132" t="s">
+      <c r="M16" s="127" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="122" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4590,14 +4770,14 @@
         <v>185</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="133"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="128"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
@@ -4615,22 +4795,22 @@
         <v>309</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="102">
+      <c r="I18" s="76"/>
+      <c r="J18" s="115">
         <v>10</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K18" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="120">
+      <c r="L18" s="131">
         <v>18933367700</v>
       </c>
-      <c r="M18" s="124" t="s">
+      <c r="M18" s="133" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="16" t="s">
         <v>101</v>
       </c>
@@ -4648,11 +4828,11 @@
         <v>309</v>
       </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="125"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4661,7 +4841,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="121" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -4685,7 +4865,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="81" t="s">
         <v>103</v>
       </c>
       <c r="L22" s="20">
@@ -4696,7 +4876,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="22" t="s">
         <v>111</v>
       </c>
@@ -4714,9 +4894,9 @@
         <v>453.8</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="81" t="s">
         <v>37</v>
       </c>
       <c r="L23" s="24">
@@ -4738,7 +4918,10 @@
         <v>1663.8</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="I24" s="40">
+        <f>SUM(I16:I23)</f>
+        <v>8</v>
+      </c>
       <c r="J24" s="40">
         <f>SUM(J16:J23)</f>
         <v>10</v>
@@ -4765,8 +4948,8 @@
         <v>72</v>
       </c>
       <c r="K26" s="43">
-        <f>G26-D26</f>
-        <v>201.11999999999989</v>
+        <f>G26-D26-I24</f>
+        <v>193.11999999999989</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4793,23 +4976,25 @@
       <c r="F30" s="23">
         <v>359</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G30" s="115">
         <v>580</v>
       </c>
-      <c r="H30" s="102">
+      <c r="H30" s="115">
         <v>509.25</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="102">
+      <c r="I30" s="135">
+        <v>8</v>
+      </c>
+      <c r="J30" s="115">
         <v>3.48</v>
       </c>
-      <c r="K30" s="120" t="s">
+      <c r="K30" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="120">
+      <c r="L30" s="131">
         <v>18117208319</v>
       </c>
-      <c r="M30" s="120" t="s">
+      <c r="M30" s="131" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4830,13 +5015,13 @@
       <c r="F31" s="23">
         <v>225</v>
       </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
     </row>
     <row r="32" spans="1:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D32" s="40">
@@ -4853,7 +5038,9 @@
         <f>SUM(H30:H31)</f>
         <v>509.25</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="40">
+        <v>8</v>
+      </c>
       <c r="J32" s="40">
         <f>SUM(J30:J31)</f>
         <v>3.48</v>
@@ -4881,18 +5068,20 @@
         <v>72</v>
       </c>
       <c r="K34" s="43">
-        <f>G34-D34</f>
-        <v>67.269999999999982</v>
+        <f>G34-D34-I32</f>
+        <v>59.269999999999982</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
+  <mergeCells count="22">
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
@@ -4902,18 +5091,23 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{5305CDA7-C4D4-4672-939D-C73693604BDA}"/>
     <hyperlink ref="B26" r:id="rId2" xr:uid="{1871C8F9-78F1-4327-BD6B-3BAD5E5E1BE3}"/>
     <hyperlink ref="B34" r:id="rId3" xr:uid="{285DE6DE-CAE6-4A7D-A21A-55045D44044A}"/>
+    <hyperlink ref="K22" location="'100帮 已下单'!L16" display="张瑶" xr:uid="{E60A593D-294B-4E1E-8A99-9C854DA5EF38}"/>
+    <hyperlink ref="K18:K19" location="'100帮 已下单'!L28" display="陈泽琳" xr:uid="{7A2BD153-EF2E-4CD0-9A8E-57188723AD6B}"/>
+    <hyperlink ref="K8:K9" location="'100帮 已下单'!L18" display="周艺雯" xr:uid="{671CDE34-0D9E-4D38-9E39-0899B55BC352}"/>
+    <hyperlink ref="K23" location="'100帮 已下单'!L19" display="王晓玥" xr:uid="{E028263F-8608-4766-BE28-B983A498E6C1}"/>
+    <hyperlink ref="K6" location="'100帮 已下单'!L28" display="陈泽琳" xr:uid="{D0FE3523-93AC-40AE-98EE-DA36D6A68A33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId4"/>
@@ -4925,7 +5119,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4940,10 +5134,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
